--- a/Lib_Repo_Excel/FileExcel_Digisales/SCD0182 - Sales Mengakses Menu Report - Menu Product Holding Ratio - Report.xlsx
+++ b/Lib_Repo_Excel/FileExcel_Digisales/SCD0182 - Sales Mengakses Menu Report - Menu Product Holding Ratio - Report.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1442\Desktop\DigiSales\Lib_Repo_Excel\FileExcel_Digisales\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1427\Documents\BNI\DigiSales\Lib_Repo_Excel\FileExcel_Digisales\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{903912B6-5FEB-4575-8895-0D31A058763A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B1486D7-5FE2-4F02-91F5-C8856D7AA105}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3495" yWindow="2700" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SCD0182" sheetId="2" r:id="rId1"/>
@@ -182,7 +182,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
@@ -210,6 +210,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -521,7 +524,7 @@
   <dimension ref="A1:U6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -549,55 +552,55 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N1" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="O1" t="s">
+      <c r="O1" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="P1" t="s">
+      <c r="P1" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="Q1" s="8" t="s">
         <v>14</v>
       </c>
     </row>
@@ -605,10 +608,10 @@
       <c r="A2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="9" t="s">
         <v>27</v>
       </c>
       <c r="D2" s="9" t="s">

--- a/Lib_Repo_Excel/FileExcel_Digisales/SCD0182 - Sales Mengakses Menu Report - Menu Product Holding Ratio - Report.xlsx
+++ b/Lib_Repo_Excel/FileExcel_Digisales/SCD0182 - Sales Mengakses Menu Report - Menu Product Holding Ratio - Report.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1427\Documents\BNI\DigiSales\Lib_Repo_Excel\FileExcel_Digisales\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1442\Desktop\DigiSales\Lib_Repo_Excel\FileExcel_Digisales\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B1486D7-5FE2-4F02-91F5-C8856D7AA105}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{168777BD-2A78-4641-967A-52AB0D129E0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
   <si>
     <t>SIDEBAR_MENU</t>
   </si>
@@ -93,18 +93,6 @@
   </si>
   <si>
     <t>TEXT4</t>
-  </si>
-  <si>
-    <t>10186699862</t>
-  </si>
-  <si>
-    <t>1. login digisales portal dengan sales 39798
-2. buka menu product holding
-3. isi field npp sales sendiri dengan 39798, dengan field tahun, bulan dan CIF (tahun 2022 bulan februari) 
-4. klik generate
-5. data muncul
-7. klik export file, pilih salah jenis xls atau xlsx
-8. data report excel berhasil terdownload dan dapat dilihat</t>
   </si>
   <si>
     <t xml:space="preserve"> - NPP akan muncul secara otomatis oleh system berdasarkan user login sales tersebut
@@ -129,6 +117,9 @@
 5. data muncul
 7. klik export file, pilih salah jenis xls atau xlsx
 8. data report excel berhasil terdownload dan dapat dilihat</t>
+  </si>
+  <si>
+    <t>Sales mengakses menu: Report Menu - Product Holding Ratio - Report</t>
   </si>
 </sst>
 </file>
@@ -523,8 +514,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0EAF5E5-8229-45B3-AC11-8AED029F52F4}">
   <dimension ref="A1:U6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -598,7 +589,7 @@
         <v>20</v>
       </c>
       <c r="P1" s="8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="Q1" s="8" t="s">
         <v>14</v>
@@ -609,16 +600,16 @@
         <v>3</v>
       </c>
       <c r="B2" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="9" t="s">
-        <v>27</v>
-      </c>
       <c r="D2" s="9" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F2" s="10">
         <v>39798</v>
@@ -643,11 +634,9 @@
       <c r="N2" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="O2" s="12" t="s">
-        <v>21</v>
-      </c>
+      <c r="O2" s="12"/>
       <c r="P2" s="12" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="Q2" s="12" t="s">
         <v>19</v>
